--- a/db/templateFiles/historyTemplate.xlsx
+++ b/db/templateFiles/historyTemplate.xlsx
@@ -5,21 +5,22 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gdb\main\templateFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gdb\db\templateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="177">
   <si>
     <t>2020-10-10 16:33:00</t>
   </si>
@@ -592,8 +593,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -935,13 +937,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -957,7 +959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -965,7 +967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -973,7 +975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -981,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -989,7 +991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -997,7 +999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1005,7 +1007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1013,7 +1015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1037,7 +1039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +1055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1069,7 +1071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1117,7 +1119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1125,7 +1127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1165,7 +1167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1181,7 +1183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1189,7 +1191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1205,7 +1207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1213,7 +1215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -1221,7 +1223,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -1229,7 +1231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -1237,7 +1239,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -1253,7 +1255,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -1277,7 +1279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -1293,7 +1295,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -1317,7 +1319,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -1325,7 +1327,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -1389,7 +1391,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -1405,7 +1407,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -1445,7 +1447,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -1453,7 +1455,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -1461,7 +1463,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -1469,7 +1471,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -1485,7 +1487,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -1493,7 +1495,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -1509,7 +1511,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -1517,7 +1519,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>132</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -1541,7 +1543,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -1549,7 +1551,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -1565,7 +1567,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -1573,7 +1575,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -1581,7 +1583,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>143</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>144</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>146</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>148</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -1637,7 +1639,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -1645,7 +1647,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>155</v>
       </c>
@@ -1653,7 +1655,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>157</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>159</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>162</v>
       </c>
@@ -1685,7 +1687,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -1693,7 +1695,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>166</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>168</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>170</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>172</v>
       </c>
@@ -1725,7 +1727,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>174</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>175</v>
       </c>
@@ -1749,4 +1751,821 @@
     <ignoredError sqref="A1:B100" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>